--- a/CheckinManagementSystem/Report/签到表.xlsx
+++ b/CheckinManagementSystem/Report/签到表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\C#\check-in-out-software\CheckinManagementSystem\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4688A90-99F2-400F-B696-E29ABF30DB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D390DB7-EB87-4991-A678-8DA28F41CC6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>序号</t>
   </si>
@@ -112,9 +112,6 @@
     <t>总次超时</t>
   </si>
   <si>
-    <t>忘记签入</t>
-  </si>
-  <si>
     <t>总次备注</t>
   </si>
   <si>
@@ -125,7 +122,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,14 +147,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -225,7 +214,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -243,12 +232,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -552,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X30"/>
+  <dimension ref="A1:W36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="A6" sqref="A6:N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -570,84 +553,80 @@
     <col min="8" max="8" width="7.33203125" customWidth="1"/>
     <col min="9" max="11" width="14.44140625" customWidth="1"/>
     <col min="12" max="13" width="16.5546875" customWidth="1"/>
-    <col min="14" max="14" width="17.44140625" customWidth="1"/>
-    <col min="15" max="15" width="18.44140625" customWidth="1"/>
+    <col min="14" max="14" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="37.049999999999997" customHeight="1">
-      <c r="A1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-    </row>
-    <row r="2" spans="1:24">
-      <c r="A2" s="11" t="s">
+    <row r="1" spans="1:23" ht="37.049999999999997" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
@@ -656,24 +635,23 @@
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-    </row>
-    <row r="3" spans="1:24">
-      <c r="A3" s="12"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="10"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
@@ -682,9 +660,8 @@
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-    </row>
-    <row r="4" spans="1:24">
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -699,9 +676,8 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-    </row>
-    <row r="5" spans="1:24">
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -716,9 +692,8 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-    </row>
-    <row r="6" spans="1:24">
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -733,9 +708,8 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-    </row>
-    <row r="7" spans="1:24">
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
@@ -750,9 +724,8 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-    </row>
-    <row r="8" spans="1:24">
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
@@ -767,385 +740,458 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-    </row>
-    <row r="9" spans="1:24">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-    </row>
-    <row r="10" spans="1:24">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-    </row>
-    <row r="11" spans="1:24">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-    </row>
-    <row r="12" spans="1:24">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-    </row>
-    <row r="13" spans="1:24">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-    </row>
-    <row r="14" spans="1:24">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-    </row>
-    <row r="15" spans="1:24">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-    </row>
-    <row r="16" spans="1:24">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A1:O1"/>
+  <mergeCells count="15">
+    <mergeCell ref="A1:N1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -1160,7 +1206,6 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
